--- a/Aggregated tweet data.xlsx
+++ b/Aggregated tweet data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\twitter api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B3DADE-DBF0-4EBB-9D20-95B608769929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC4ABC-CBD4-4B08-9A96-24A76953F297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1500" windowWidth="18570" windowHeight="10425" xr2:uid="{1EEE4691-843E-4AF0-AA1A-66E3872186E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EEE4691-843E-4AF0-AA1A-66E3872186E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>tweets per min</t>
   </si>
   <si>
     <t>retweets per min</t>
   </si>
+  <si>
+    <t>$GME closing price</t>
+  </si>
+  <si>
+    <t>Trade Volume</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +90,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -116,7 +140,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -129,14 +153,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>Tweets</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> and Retweets per hour for "$GME"</a:t>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+              <a:t> per hour vs. Price per stock</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -153,7 +176,636 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tweets per min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C99A-4351-9977-F5346BE2AB1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$GME closing price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>65.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>347.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C99A-4351-9977-F5346BE2AB1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="863456192"/>
+        <c:axId val="863454528"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="863456192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dates</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49542354462760091"/>
+              <c:y val="0.85680482507628197"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863454528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="863454528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t> Tweets</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Per Min.</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863456192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Retweets/Tweets per hour vs. Price per stock</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -264,7 +916,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C99A-4351-9977-F5346BE2AB1A}"/>
+              <c16:uniqueId val="{00000000-4913-4EFF-9518-2B4A910F7654}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -273,11 +925,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tweets per min</c:v>
+                  <c:v>$GME closing price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -326,30 +978,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$H$3</c:f>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.73</c:v>
+                  <c:v>65.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.13</c:v>
+                  <c:v>65.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1</c:v>
+                  <c:v>65.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5299999999999994</c:v>
+                  <c:v>76.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.85</c:v>
+                  <c:v>147.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110</c:v>
+                  <c:v>347.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>193.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,7 +1009,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C99A-4351-9977-F5346BE2AB1A}"/>
+              <c16:uniqueId val="{00000001-4913-4EFF-9518-2B4A910F7654}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -370,11 +1022,485 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="863456192"/>
-        <c:axId val="863454528"/>
+        <c:axId val="139647855"/>
+        <c:axId val="139637871"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="863456192"/>
+        <c:axId val="139647855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139637871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="139637871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139647855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Trade Volume vs Tweets Per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Min</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>retweets per min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BC0-41D9-8AE7-48527025A56D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="228150447"/>
+        <c:axId val="228152111"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trade Volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>196784300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177874000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178588000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177874000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178588000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93396700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58815800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BC0-41D9-8AE7-48527025A56D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="133944511"/>
+        <c:axId val="133951999"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="228150447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,14 +1543,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="863454528"/>
+        <c:crossAx val="228152111"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="863454528"/>
+        <c:axId val="228152111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +1586,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -475,10 +1601,70 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="863456192"/>
+        <c:crossAx val="228150447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="133951999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133944511"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="133944511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="133951999"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -502,7 +1688,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -520,6 +1706,541 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Stock Price vs Trade Volume</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$GME closing price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>65.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>347.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB63-4B52-8F8F-1B8B1ED6102E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="133930783"/>
+        <c:axId val="133939935"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trade Volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>196784300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177874000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178588000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177874000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178588000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93396700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58815800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB63-4B52-8F8F-1B8B1ED6102E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="133936191"/>
+        <c:axId val="133944927"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="133930783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133939935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="133939935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133930783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="133944927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133936191"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="133936191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="133944927"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -595,6 +2316,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -758,6 +2599,1541 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1116,15 +4492,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1144,6 +4520,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3018F57-6D83-4B63-AB39-9A86E35C8B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D9CDC0-E121-4271-9FD0-1F22F93FE528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDFAB70-EB4A-4C3B-9628-16696E63266E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1449,16 +4933,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859E48A0-5E0C-4497-8BB4-A67363D5DBD7}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A4" activeCellId="1" sqref="A1:H1 A4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1537,8 +5023,61 @@
         <v>101</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="C4" s="2">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="D4" s="2">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="E4" s="2">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="F4" s="2">
+        <v>147.97999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>347.51</v>
+      </c>
+      <c r="H4" s="2">
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>196784300</v>
+      </c>
+      <c r="C5" s="3">
+        <v>177874000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>178588000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>177874000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>178588000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>93396700</v>
+      </c>
+      <c r="H5" s="3">
+        <v>58815800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>